--- a/database/steel_data_0310.xlsx
+++ b/database/steel_data_0310.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3649DD-5E87-F14F-88D5-79B29D89C837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE9251-21BB-B044-B2F7-DA34DDCFC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-6920" windowWidth="38400" windowHeight="19880" tabRatio="775" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/steel_data_0310.xlsx
+++ b/database/steel_data_0310.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE9251-21BB-B044-B2F7-DA34DDCFC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C512E-E6A3-EC4A-BA89-3380EE8F4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6920" windowWidth="38400" windowHeight="19880" tabRatio="775" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" tabRatio="775" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Scrap_BB</t>
-  </si>
-  <si>
-    <t>H2-DRI-EAF</t>
   </si>
   <si>
     <t>Iron ore_EAF</t>
@@ -947,18 +944,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,10 +963,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1036,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>22</v>
@@ -1067,7 +1064,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>52</v>
@@ -1101,10 +1098,10 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="13">
         <v>0.65</v>
@@ -1118,10 +1115,10 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="13">
         <v>0.92</v>
@@ -1135,10 +1132,10 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="13">
         <v>9.9999999999999992E-2</v>
@@ -1152,10 +1149,10 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="13">
         <v>0.73</v>
@@ -1169,10 +1166,10 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -1186,10 +1183,10 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13">
         <v>0.01</v>
@@ -1203,10 +1200,10 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -1223,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="13">
         <v>0.01</v>
@@ -1240,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
@@ -2473,7 +2470,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2732,7 +2729,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2918,7 +2915,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -3167,7 +3164,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>1.05</v>
@@ -3250,7 +3247,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>1.65</v>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>1.1000000000000001</v>
@@ -3416,7 +3413,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>1.05</v>
@@ -3499,7 +3496,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>1.65</v>
@@ -3582,7 +3579,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>1.1000000000000001</v>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>1.05</v>
@@ -3748,7 +3745,7 @@
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>1.65</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>1.1000000000000001</v>
@@ -3914,7 +3911,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>1.05</v>
@@ -4019,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="16">
         <v>538408.9009146546</v>
@@ -4351,7 +4348,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="16">
         <v>126638.8</v>
@@ -4434,7 +4431,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="16">
         <v>290855.8</v>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="16">
         <v>538408.9009146546</v>
@@ -4600,7 +4597,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="16">
         <v>126638.8</v>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="16">
         <v>290855.8</v>
@@ -4766,7 +4763,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="16">
         <v>538408.9009146546</v>
@@ -4849,7 +4846,7 @@
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="16">
         <v>126638.8</v>
@@ -4932,7 +4929,7 @@
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="16">
         <v>290855.8</v>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="16">
         <v>538408.9009146546</v>
@@ -5126,7 +5123,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -5458,7 +5455,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -5541,7 +5538,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -5624,7 +5621,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5707,7 +5704,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5790,7 +5787,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5873,7 +5870,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5956,7 +5953,7 @@
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6039,7 +6036,7 @@
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -6225,7 +6222,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -6257,7 +6254,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -6265,7 +6262,7 @@
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -6273,7 +6270,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -6289,7 +6286,7 @@
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -6297,7 +6294,7 @@
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -6305,7 +6302,7 @@
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -6313,7 +6310,7 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -6321,7 +6318,7 @@
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -6358,7 +6355,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -6398,7 +6395,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -6406,7 +6403,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -6414,7 +6411,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -6422,7 +6419,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -6430,7 +6427,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -6438,7 +6435,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -6446,7 +6443,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -6454,7 +6451,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -6462,7 +6459,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>2000</v>
@@ -6470,7 +6467,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>2000</v>
@@ -6581,7 +6578,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="16">
         <v>6625.0999999999995</v>
@@ -6996,7 +6993,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="16">
         <v>50750</v>
@@ -7079,7 +7076,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="16">
         <v>6625.0999999999995</v>
@@ -7162,7 +7159,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="16">
         <v>0</v>
@@ -7328,7 +7325,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="16">
         <v>18934</v>
@@ -7411,7 +7408,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="16">
         <v>50750</v>
@@ -7494,7 +7491,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="16">
         <v>90716.67</v>
@@ -7577,7 +7574,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="16">
         <v>50750</v>
@@ -7660,7 +7657,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="16">
         <v>50750</v>
@@ -7743,7 +7740,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="16">
         <v>90716.67</v>
@@ -7930,7 +7927,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>14.06</v>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>16.420000000000002</v>
@@ -8428,7 +8425,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>14.06</v>
@@ -8511,7 +8508,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>16.399999999999999</v>
@@ -8594,7 +8591,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>16.399999999999999</v>
@@ -8677,7 +8674,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>16.03</v>
@@ -8760,7 +8757,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>16.420000000000002</v>
@@ -8843,7 +8840,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>15.9</v>
@@ -8926,7 +8923,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>15.91</v>
@@ -9009,7 +9006,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>6.01</v>
@@ -9218,10 +9215,10 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -9235,19 +9232,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="10">
         <v>4722000</v>
@@ -9261,19 +9258,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="10">
         <v>4237000</v>
@@ -9287,19 +9284,19 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="10">
         <v>4128000</v>
@@ -9313,19 +9310,19 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="10">
         <v>4127000</v>
@@ -9339,19 +9336,19 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="10">
         <v>4000000</v>
@@ -9365,19 +9362,19 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="10">
         <v>4000000</v>
@@ -9391,19 +9388,19 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="10">
         <v>4000000</v>
@@ -9417,19 +9414,19 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="10">
         <v>3804000</v>
@@ -9443,19 +9440,19 @@
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="10">
         <v>3624000</v>
@@ -9469,19 +9466,19 @@
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="10">
         <v>3239000</v>
@@ -9495,19 +9492,19 @@
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="10">
         <v>1914000</v>
@@ -9521,19 +9518,19 @@
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="10">
         <v>1683000</v>
@@ -9547,19 +9544,19 @@
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="10">
         <v>1280000</v>
@@ -9674,7 +9671,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="18">
         <v>0.1</v>
@@ -10089,7 +10086,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -10172,7 +10169,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="18">
         <v>9.5000000000000001E-2</v>
@@ -10255,7 +10252,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="18">
         <v>0.26</v>
@@ -10338,7 +10335,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="18">
         <v>0.192</v>
@@ -10421,7 +10418,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="18">
         <v>5.5E-2</v>
@@ -10504,7 +10501,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -10587,7 +10584,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
@@ -10670,7 +10667,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="18">
         <v>0</v>
@@ -10753,7 +10750,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="18">
         <v>0</v>
@@ -10836,7 +10833,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="18">
         <v>0</v>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="16">
         <v>500700</v>
@@ -11106,7 +11103,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="16">
         <v>425595</v>
@@ -11189,7 +11186,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16">
         <v>1100000</v>
@@ -11563,7 +11560,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="16">
         <v>177308.78</v>
@@ -11646,7 +11643,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="16">
         <f>B2*0.85</f>
@@ -11755,7 +11752,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16">
         <f>B2*2</f>
@@ -12051,7 +12048,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="16">
         <v>421098.9</v>
@@ -12134,7 +12131,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="16">
         <v>357934.065</v>
@@ -12217,7 +12214,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16">
         <f>B2*2</f>
@@ -12442,7 +12439,7 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -12453,7 +12450,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -12464,7 +12461,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -12679,7 +12676,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12782,82 +12779,82 @@
         <v>23</v>
       </c>
       <c r="B2" s="23">
-        <v>4000000000</v>
+        <v>69859457.910000011</v>
       </c>
       <c r="C2" s="23">
-        <v>4000000000</v>
+        <v>69859457.910000011</v>
       </c>
       <c r="D2" s="23">
-        <v>4000000000</v>
+        <v>69859457.910000011</v>
       </c>
       <c r="E2" s="23">
-        <v>4000000000</v>
+        <v>69859457.910000011</v>
       </c>
       <c r="F2" s="23">
-        <v>4000000000</v>
+        <v>69859457.910000011</v>
       </c>
       <c r="G2" s="23">
-        <v>4000000000</v>
+        <v>62873512.11900001</v>
       </c>
       <c r="H2" s="23">
-        <v>4000000000</v>
+        <v>62873512.11900001</v>
       </c>
       <c r="I2" s="23">
-        <v>4000000000</v>
+        <v>62873512.11900001</v>
       </c>
       <c r="J2" s="23">
-        <v>4000000000</v>
+        <v>62873512.11900001</v>
       </c>
       <c r="K2" s="23">
-        <v>4000000000</v>
+        <v>62873512.11900001</v>
       </c>
       <c r="L2" s="23">
-        <v>4000000000</v>
+        <v>48901620.537000008</v>
       </c>
       <c r="M2" s="23">
-        <v>4000000000</v>
+        <v>48901620.537000008</v>
       </c>
       <c r="N2" s="23">
-        <v>4000000000</v>
+        <v>48901620.537000008</v>
       </c>
       <c r="O2" s="23">
-        <v>4000000000</v>
+        <v>48901620.537000008</v>
       </c>
       <c r="P2" s="23">
-        <v>4000000000</v>
+        <v>48901620.537000008</v>
       </c>
       <c r="Q2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="R2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="S2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="T2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="U2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="V2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="W2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="X2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="Y2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="Z2" s="23">
-        <v>4000000000</v>
+        <v>34929728.954999998</v>
       </c>
       <c r="AA2" s="23">
-        <v>4000000000</v>
+        <v>6985945.7909999937</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -12874,8 +12871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12905,10 +12902,10 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -12923,7 +12920,7 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -12941,7 +12938,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -12959,7 +12956,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -12977,7 +12974,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -12995,10 +12992,10 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="13">
         <v>0.23</v>
@@ -13013,10 +13010,10 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -13031,10 +13028,10 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="13">
         <v>0.12</v>
@@ -13049,10 +13046,10 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="13">
         <v>6.9999999999999993E-2</v>
@@ -13067,10 +13064,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="13">
         <v>0.14000000000000001</v>
@@ -13085,10 +13082,10 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="13">
         <v>0.12</v>
@@ -13103,10 +13100,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="13">
         <v>0.61</v>
@@ -13120,10 +13117,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="13">
         <v>0.59</v>
@@ -13140,7 +13137,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -13157,7 +13154,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="13">
         <v>0.61</v>
